--- a/RúbricaDeEvaluación-CarlosRamirez.xlsx
+++ b/RúbricaDeEvaluación-CarlosRamirez.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\AREP\AREP-INTRODUCTION-TO-COMPUTER-SYSTEM-DESIGN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1E9BEAF-C3AD-4268-85A8-2B3C52FA619F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E93708-9655-4A4F-9CE2-D5ECAF6D2BC3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19635" xr2:uid="{30389B9F-C7D3-A542-9567-157FC0B6A65B}"/>
   </bookViews>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7759D1B1-2861-2D40-A5C1-6BA06F856130}">
   <dimension ref="A3:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -807,7 +807,7 @@
       </c>
       <c r="C22" s="10">
         <f>SUM(C23:C32)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -862,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C54" s="10">
         <f>SUM(C47,C40,C34,C22,C13)</f>
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C55" s="10">
         <f>C54/$B$54*5</f>
-        <v>5</v>
+        <v>4.9404761904761907</v>
       </c>
     </row>
   </sheetData>
